--- a/data_excel/data_tables/excels/D-道具表.xlsx
+++ b/data_excel/data_tables/excels/D-道具表.xlsx
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/data_excel/data_tables/excels/D-道具表.xlsx
+++ b/data_excel/data_tables/excels/D-道具表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>道具ID_段位等级</t>
   </si>
   <si>
     <t>道具ID_银币</t>
@@ -1017,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1121,17 +1118,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_excel/data_tables/excels/D-道具表.xlsx
+++ b/data_excel/data_tables/excels/D-道具表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -68,16 +68,13 @@
     <t>子类型</t>
   </si>
   <si>
-    <t>道具ID_段位积分</t>
+    <t>道具ID_银币</t>
   </si>
   <si>
     <t>道具类型_普通道具</t>
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>道具ID_银币</t>
   </si>
   <si>
     <t>道具ID_金币</t>
@@ -1014,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1107,17 +1104,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_excel/data_tables/excels/D-道具表.xlsx
+++ b/data_excel/data_tables/excels/D-道具表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>sub_type</t>
   </si>
   <si>
+    <t>item_name</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>item_sub_type?</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>子类型</t>
   </si>
   <si>
+    <t>道具名称</t>
+  </si>
+  <si>
     <t>道具ID_银币</t>
   </si>
   <si>
@@ -77,10 +86,19 @@
     <t>null</t>
   </si>
   <si>
+    <t>银币</t>
+  </si>
+  <si>
     <t>道具ID_金币</t>
   </si>
   <si>
+    <t>金币</t>
+  </si>
+  <si>
     <t>道具ID_经验</t>
+  </si>
+  <si>
+    <t>经验</t>
   </si>
 </sst>
 </file>
@@ -1011,20 +1029,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,71 +1055,89 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/D-道具表.xlsx
+++ b/data_excel/data_tables/excels/D-道具表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -77,25 +77,16 @@
     <t>道具名称</t>
   </si>
   <si>
-    <t>道具ID_银币</t>
-  </si>
-  <si>
-    <t>道具类型_普通道具</t>
+    <t>银币</t>
+  </si>
+  <si>
+    <t>普通道具</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>银币</t>
-  </si>
-  <si>
-    <t>道具ID_金币</t>
-  </si>
-  <si>
     <t>金币</t>
-  </si>
-  <si>
-    <t>道具ID_经验</t>
   </si>
   <si>
     <t>经验</t>
@@ -1032,7 +1023,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1109,12 +1100,12 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1123,12 +1114,12 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1137,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
